--- a/palette-connection-service/src/data/SFModels.xlsx
+++ b/palette-connection-service/src/data/SFModels.xlsx
@@ -71,22 +71,34 @@
       <style:table-cell-properties fo:wrap-option="wrap"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="14pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="14pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="DejaVu Sans" style:font-size-complex="14pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="14pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="14pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="14pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="TAWS" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce5"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>crmId</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>objectGlobalKeyname</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>objectCrmKeyname</text:p>
           </table:table-cell>
         </table:table-row>
@@ -318,21 +330,21 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
         </table:table-row>
       </table:table>
       <table:table table:name="Big_Thought" table:style-name="ta1">
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce5"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>crmId</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>objectGlobalKeyname</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>objectCrmKeyname</text:p>
           </table:table-cell>
         </table:table-row>
@@ -467,7 +479,7 @@
             <text:p>Palette_To_Do</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Palette_Resource_Connection__c</text:p>
+            <text:p>Palette_To_Do__c</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -553,7 +565,7 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -566,9 +578,9 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-02-10T09:48:23.501898960</meta:creation-date>
-    <dc:date>2022-04-23T15:18:33.527520224</dc:date>
-    <meta:editing-duration>PT5H40M23S</meta:editing-duration>
-    <meta:editing-cycles>20</meta:editing-cycles>
+    <dc:date>2022-04-24T16:06:30.488426750</dc:date>
+    <meta:editing-duration>PT5H41M2S</meta:editing-duration>
+    <meta:editing-cycles>21</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="2" meta:cell-count="135" meta:object-count="0"/>
   </office:meta>
@@ -581,15 +593,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">20630</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">27252</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">22008</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">26042</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Big_Thought">
               <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">13</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -662,7 +674,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpEdXBsZXg6Tm9uZQBQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">nwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAwAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNABEdXBsZXg6Tm9uZQAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -829,9 +841,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-04-23">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-04-24">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="15:18:13.815605676">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="16:05:50.985545125">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/palette-connection-service/src/data/SFModels.xlsx
+++ b/palette-connection-service/src/data/SFModels.xlsx
@@ -17,6 +17,7 @@
   <office:scripts/>
   <office:font-face-decls>
     <style:font-face style:name="Ubuntu" svg:font-family="Ubuntu" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -44,6 +45,15 @@
     <style:style style:name="co7" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="6.664cm"/>
     </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="7.052cm"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="6.535cm"/>
+    </style:style>
+    <style:style style:name="co10" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="10.456cm"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.631cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
@@ -58,18 +68,6 @@
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="14pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="14pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="DejaVu Sans" style:font-size-complex="14pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="bold" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="14pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="14pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="14pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:wrap-option="wrap"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="wrap"/>
@@ -82,6 +80,13 @@
     <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="wrap"/>
       <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Ubuntu" fo:font-size="12pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Serif" fo:font-size="10pt" fo:language="en" fo:country="IN" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="DejaVu Sans" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="DejaVu Sans" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -333,12 +338,13 @@
           <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="Big_Thought" table:style-name="ta1">
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce5"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce5"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce5"/>
+      <table:table table:name="Palette2" table:style-name="ta1">
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="23" table:default-cell-style-name="ce8"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>crmId</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
@@ -347,225 +353,567 @@
           <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>objectCrmKeyname</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Account</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Activity</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Contact</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Activities</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Activities__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Contact_Us</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Contact_Us__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Document</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Document__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Feedback</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Feedback__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Guide</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Guide__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Modification</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Modification__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Notification</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Notification__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Opportunity</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Opportunity__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Report_Issue</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Report_Issue__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_To_Do</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_To_Do__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Recommendation</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Recommendation__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Opportunity</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Resources</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Palette_Resources__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Term</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Term__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Application</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Application__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Relationship</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>npe4__Relationship__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>Affiliation</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>npe5__Affiliation__c</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>User</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9b7a7291-9c01-4c04-95e4-762f30549e80</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>opportunityComments</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Opportunity_Comment__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4" table:number-rows-repeated="976">
+          <table:table-cell table:number-columns-repeated="26"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:number-columns-repeated="26"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="BT" table:style-name="ta1">
+        <table:table-column table:style-name="co8" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co10" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="29" table:default-cell-style-name="ce8"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>crmId</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>objectGlobalKeyname</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>objectCrmKeyname</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Account</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Activity</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Contact</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Activities</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Activities__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Contact_Us</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Contact_Us__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Document</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Document__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Feedback</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Feedback__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Guide</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Guide__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Modification</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Modification__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Notification</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Notification__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Opportunity</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Opportunity__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Report_Issue</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Report_Issue__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_To_Do</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_To_Do__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Recommendation</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Recommendation__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Opportunity</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Resources</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Resources__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Term</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Term__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Application</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Application__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Relationship</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>npe4__Relationship__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Affiliation</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>npe5__Affiliation__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>User</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>9f7511ea-9e68-439f-96e7-0cc2501c0908</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>opportunityComments</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>Palette_Opportunity_Comment__c</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4" table:number-rows-repeated="38">
+          <table:table-cell table:number-columns-repeated="26"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4" table:number-rows-repeated="939">
+          <table:table-cell table:number-columns-repeated="32"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4" table:number-rows-repeated="60">
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="26"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="26"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -578,11 +926,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.2">
   <office:meta>
     <meta:creation-date>2022-02-10T09:48:23.501898960</meta:creation-date>
-    <dc:date>2022-04-24T16:06:30.488426750</dc:date>
-    <meta:editing-duration>PT5H41M2S</meta:editing-duration>
-    <meta:editing-cycles>21</meta:editing-cycles>
+    <dc:date>2022-05-20T16:38:30.689155576</dc:date>
+    <meta:editing-duration>PT5H44M15S</meta:editing-duration>
+    <meta:editing-cycles>28</meta:editing-cycles>
     <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="2" meta:cell-count="135" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="3" meta:cell-count="207" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -593,15 +941,33 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">22008</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">26042</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">24043</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">10565</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
-            <config:config-item-map-entry config:name="Big_Thought">
+            <config:config-item-map-entry config:name="BT">
               <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">13</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="Palette2">
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -636,7 +1002,7 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Big_Thought</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">BT</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">2429</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
@@ -716,6 +1082,7 @@
 <office:document-styles xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:rpt="http://openoffice.org/2005/report" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:ooo="http://openoffice.org/2004/office" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:dom="http://www.w3.org/2001/xml-events" office:version="1.2">
   <office:font-face-decls>
     <style:font-face style:name="Ubuntu" svg:font-family="Ubuntu" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Serif" svg:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Lohit Devanagari" svg:font-family="'Lohit Devanagari'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -841,9 +1208,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-04-24">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-05-20">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="16:05:50.985545125">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="16:38:01.845991051">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
